--- a/WCMC.Normalization.mTIC/inst/www/template.xlsx
+++ b/WCMC.Normalization.mTIC/inst/www/template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -514,16 +514,16 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -570,46 +570,46 @@
       </c>
       <c r="C2" s="1">
         <f ca="1">RAND()</f>
-        <v>0.86680196726432057</v>
+        <v>1.2063004849686587E-2</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:L2" ca="1" si="0">RAND()</f>
-        <v>0.83338646017750051</v>
+        <v>0.55557718066061235</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1134024693904609E-2</v>
+        <v>0.9025517445413811</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27394250938689624</v>
+        <v>0.53341842702822062</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57540478224664426</v>
+        <v>0.12090272128508694</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15435344646026949</v>
+        <v>0.98618485012309665</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8267741822007242E-2</v>
+        <v>0.7109790742516876</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94733415326765724</v>
+        <v>8.137502591445489E-2</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36227969650344793</v>
+        <v>0.61556305073108319</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37661794193445208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.28557994643833851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -618,46 +618,46 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:L21" ca="1" si="1">RAND()</f>
-        <v>9.6582589793509754E-2</v>
+        <v>0.69727938120261568</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60802055848632919</v>
+        <v>0.53468808582831373</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44703182384686713</v>
+        <v>0.38523538124043333</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16490352280549747</v>
+        <v>6.2157362473114541E-2</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30909757884467814</v>
+        <v>0.87542707188960955</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67204615630538089</v>
+        <v>0.12460922161802568</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4783245698126446</v>
+        <v>0.96266663660399798</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67787250924345732</v>
+        <v>0.21669752103952067</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70308695914891894</v>
+        <v>0.64292231920042697</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41398099374703334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.87941596704677405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -666,46 +666,46 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3059947539437027E-2</v>
+        <v>1.6081432099465109E-2</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9183772560522272</v>
+        <v>0.69586726051880532</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69612401992882289</v>
+        <v>0.49613037758746192</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85578650518936894</v>
+        <v>0.1808734973142323</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19435399817497423</v>
+        <v>0.18058442655197215</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41222326759177419</v>
+        <v>0.88778503443294521</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2334966438299857</v>
+        <v>0.3421651972669657</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89401606307370241</v>
+        <v>0.72985181542333533</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18133043496449275</v>
+        <v>0.52481751937181309</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49009512454394255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.10170456421583229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -714,46 +714,46 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72408912659543634</v>
+        <v>0.64042943922548656</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43486864997495234</v>
+        <v>0.98778599008892154</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83483687447567434</v>
+        <v>0.53676728080991098</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55293617919361315</v>
+        <v>0.6859820439956793</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61344675705067231</v>
+        <v>0.27997864880775802</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48914266878315726</v>
+        <v>0.11607208896172327</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72644713731939847</v>
+        <v>0.84994894620000405</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3361000166677296</v>
+        <v>0.24898032119943769</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70037794505033957</v>
+        <v>0.55061462901173119</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65786267259941489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.39620319969876183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -762,46 +762,46 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64972279496363861</v>
+        <v>0.20395658344230561</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57353793286717647</v>
+        <v>0.10706659133102336</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33623383502260984</v>
+        <v>0.64951237985236066</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58488245294134189</v>
+        <v>0.33533739890921921</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9852269806800954</v>
+        <v>0.34590212052987146</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87089468979620255</v>
+        <v>0.24821575086649283</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6917531650423911E-2</v>
+        <v>0.67737781849653667</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5380538074127581</v>
+        <v>0.86958995668860573</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84279708663609887</v>
+        <v>0.85350473317258968</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35624815675883226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.33458432936362015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -810,46 +810,46 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96090455685333909</v>
+        <v>0.1211213295622805</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75482583064462438</v>
+        <v>0.99963824746757279</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96008754253126372</v>
+        <v>0.94923089740780342</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70421222995512378</v>
+        <v>0.62860580260239496</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73986578358233035</v>
+        <v>0.60644439595646971</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45186409606459743</v>
+        <v>0.9693762342898844</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35356174141173324</v>
+        <v>0.68396871588736941</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.323213747125934E-2</v>
+        <v>0.43461698909569724</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46440786882045626</v>
+        <v>0.69792152048724299</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76720917665331345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.47628017247851884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -858,46 +858,46 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18494698724911296</v>
+        <v>0.78349874796398322</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15923718735120496</v>
+        <v>0.28096356477033169</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16290970898478574</v>
+        <v>0.74318943073227584</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.491629903542118</v>
+        <v>0.19523725230585176</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5078448871886404</v>
+        <v>0.62869539643328554</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0543679645136934E-2</v>
+        <v>0.77937439242499384</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47141088281313293</v>
+        <v>6.1427841417268203E-2</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30202310762257889</v>
+        <v>0.74012403323178211</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52474999033260117</v>
+        <v>0.99253350885429181</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63781797008922125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+        <v>7.9764935691331362E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -906,46 +906,46 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.05908993950188E-2</v>
+        <v>0.79855161499876692</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11665222013183707</v>
+        <v>0.52919547463522276</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80376743990261312</v>
+        <v>0.87503657147760583</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39626765345070036</v>
+        <v>0.41411518541334102</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77304791510712256</v>
+        <v>0.9715608419602122</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0838721756529721E-2</v>
+        <v>0.49789040119580819</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61113840783025752</v>
+        <v>0.62644912355178362</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99411482098795778</v>
+        <v>0.77851233716930113</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7117434963958065E-2</v>
+        <v>0.82164030238891317</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5802291855839008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.94455848354589123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -954,46 +954,46 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28100525465075388</v>
+        <v>0.14578358036242256</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29461218862594063</v>
+        <v>0.52993018174114426</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42279585632191685</v>
+        <v>0.25289492158045268</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49983393086349637</v>
+        <v>0.97776791342220193</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8322402806868374E-2</v>
+        <v>0.21766881359048851</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65110656825823565</v>
+        <v>0.99910616781940553</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66850382589111668</v>
+        <v>0.37723252108320948</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89995313823944667</v>
+        <v>8.7927259453181916E-2</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87357589668646518</v>
+        <v>0.14066386820330101</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85520497515132754</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.10051353349256109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1002,46 +1002,46 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93336923977079778</v>
+        <v>0.23495837320693291</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91536654992689148</v>
+        <v>0.72250431589958874</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46779871289807262</v>
+        <v>0.20969950306256269</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80635124047509232</v>
+        <v>0.45374353007475565</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88549938254790783</v>
+        <v>8.3269100812834895E-2</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10857755206866826</v>
+        <v>0.6417469447015719</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37894958444165017</v>
+        <v>0.55436227082671696</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81038774742012032</v>
+        <v>7.8328273548262772E-2</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22250258716951654</v>
+        <v>0.34661084789374974</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23486749046619892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.23652179155950703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1050,46 +1050,46 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25124503641260543</v>
+        <v>0.42350420484005469</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13207857516151822</v>
+        <v>0.14862646355706333</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71708998536118695</v>
+        <v>0.43167899233399354</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18986270780460612</v>
+        <v>0.26098714186586203</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77777762393571248</v>
+        <v>5.6508214175784888E-2</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3489484521302374</v>
+        <v>0.91242947220192117</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3267937167518824</v>
+        <v>0.72076071946949216</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30614287845882537</v>
+        <v>0.7732769779364782</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78184470384144245</v>
+        <v>0.66686554396736419</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77048812221384633</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.78703227719226787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -1098,46 +1098,46 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2815846759586238</v>
+        <v>0.4563516962790255</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3560666141961405</v>
+        <v>0.91595877194560316</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43282299396560464</v>
+        <v>0.26574643975871948</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47436323591466489</v>
+        <v>0.78151648840327814</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99392413817702063</v>
+        <v>0.73698098454074479</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44071738759091805</v>
+        <v>0.10919713039754075</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3956722494055467E-2</v>
+        <v>0.31890503209680121</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94546241229045824</v>
+        <v>0.46080442260941401</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24007686198359468</v>
+        <v>0.82323773386368815</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2676356533706357E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.44337213766041739</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -1146,46 +1146,46 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23950501176159755</v>
+        <v>0.66963101534388636</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56799099301368861</v>
+        <v>0.74049231689077866</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15406906903599982</v>
+        <v>0.31994865989013865</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14202897826377336</v>
+        <v>0.89953734446200773</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26986511261357371</v>
+        <v>0.10932092667905591</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96204479706965518</v>
+        <v>0.39497702253620481</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1955805022784094</v>
+        <v>0.70766219355538218</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97767894220793905</v>
+        <v>0.89258546032648234</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66616415191647571</v>
+        <v>0.3456703165588203</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35620518421807279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.97277031183327844</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1194,46 +1194,46 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44403513928555205</v>
+        <v>0.42118866021522572</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87146022780200683</v>
+        <v>0.98270182787202298</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94472789767535659</v>
+        <v>0.85353293480696113</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8197001895661264E-3</v>
+        <v>0.42295486812531935</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86532222690697225</v>
+        <v>0.45195284020483084</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57869121002573087</v>
+        <v>0.84763108165831824</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42525564722420062</v>
+        <v>6.3149592568134127E-2</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58373515409921906</v>
+        <v>0.878770793823337</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37481508268680142</v>
+        <v>5.6597525818088634E-2</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88762899340008183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.59497251347999724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1242,46 +1242,46 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81407294161624066</v>
+        <v>6.1914604308338173E-2</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43066287791491276</v>
+        <v>0.5393099092707101</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70818135973897955</v>
+        <v>0.49625977234335916</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55476161870952279</v>
+        <v>0.81892047076070451</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29525239726493002</v>
+        <v>5.8855425806763506E-2</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.819321876789047</v>
+        <v>1.0914405491648571E-2</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25699905018719771</v>
+        <v>9.8914198812569243E-2</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6487009165176717</v>
+        <v>0.17576283270641291</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10488419822487016</v>
+        <v>0.56215740496086319</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63366815772345297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+        <v>5.890367034365096E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1290,46 +1290,46 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6399406084004895</v>
+        <v>0.46414391557704715</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77635219906112263</v>
+        <v>0.9193257386436271</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35984153067499403</v>
+        <v>0.21230677284306698</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46614921195646608</v>
+        <v>0.40609754450624236</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53710747044732132</v>
+        <v>0.23855917972082308</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85371440188546832</v>
+        <v>6.151878699521407E-2</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89901155076358452</v>
+        <v>1.7741920188672378E-2</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2848902418147774</v>
+        <v>0.27422759168285826</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15213663237496822</v>
+        <v>0.39684459905760128</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56856696869842527</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.31042458369637294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1338,46 +1338,46 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85090395509083083</v>
+        <v>0.18420683310022212</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35046546152250768</v>
+        <v>0.48343599157527062</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60527157688268118</v>
+        <v>2.8069195871014085E-2</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84582152276762779</v>
+        <v>9.8535334059255186E-2</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33484339222872117</v>
+        <v>0.15030756441935911</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24841596653962139</v>
+        <v>0.18102401176845306</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7699222897568313</v>
+        <v>0.26661136883255176</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8227789900521039E-2</v>
+        <v>0.55302496068683571</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57055251547731933</v>
+        <v>0.2776473535305134</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36253289688377732</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.91701163272102304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1386,46 +1386,46 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50252546395595354</v>
+        <v>1.9634150551116059E-2</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0523979466101219E-2</v>
+        <v>0.41143721455325521</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48251086788793018</v>
+        <v>0.51460248155121568</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.830661875021659</v>
+        <v>9.8163741110933178E-2</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25161870846801171</v>
+        <v>0.27318359689754479</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22959041592716289</v>
+        <v>0.73256348000535743</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51829040224012057</v>
+        <v>0.54655225356448744</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64478789210888943</v>
+        <v>0.24542871742076267</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20450485177282884</v>
+        <v>1.4423431572463952E-2</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2565480229510827</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.80129604017391554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -1434,46 +1434,46 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97250125555443512</v>
+        <v>0.44262961593588646</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69707972002131824</v>
+        <v>0.36789636323052732</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3963959369202753</v>
+        <v>0.83495337297765881</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89020747155961588</v>
+        <v>0.50757449281611111</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18000898982237057</v>
+        <v>0.75646001979525834</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29206057142685971</v>
+        <v>0.23757715219581643</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97698302639297874</v>
+        <v>0.16982166854029324</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92812835392992199</v>
+        <v>9.7496119910609469E-3</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39559139011783762</v>
+        <v>0.50389418750016646</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20795114475578691</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.64626412963576529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1482,46 +1482,47 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34860930159477399</v>
+        <v>0.55327254911357759</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56266589065747863</v>
+        <v>0.45228267272849287</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40230003229821354</v>
+        <v>0.51740025367698672</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68371797156228176</v>
+        <v>0.90754501014869327</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55863056775902453</v>
+        <v>0.21783747894666583</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58766790860743867</v>
+        <v>0.60508184211532867</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14608091223724706</v>
+        <v>0.30894611251096582</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60396563370068834</v>
+        <v>4.067109718598283E-2</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8630490095547687E-2</v>
+        <v>0.17463569232279041</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86893364645777982</v>
+        <v>0.42632440567555863</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>